--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,21 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VikramPhatangare\eclipse-workspace\PageObjectModelWithPageFactories\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumPractice\HelixKTLO\HelixV2E\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sanityTest" sheetId="2" r:id="rId1"/>
-    <sheet name="sampleTest" sheetId="8" r:id="rId2"/>
-    <sheet name="addCustomerTest" sheetId="3" r:id="rId3"/>
-    <sheet name="openAccountTest" sheetId="4" r:id="rId4"/>
-    <sheet name="findCarTest" sheetId="5" r:id="rId5"/>
-    <sheet name="carPriceTest" sheetId="6" r:id="rId6"/>
+    <sheet name="preProd1bTest" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId3"/>
+    <sheet name="prodSanityTest" sheetId="8" r:id="rId4"/>
+    <sheet name="preProd1bSites" sheetId="11" r:id="rId5"/>
+    <sheet name="ProdSites" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">preProd1bTest!$A$1:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">prodSanityTest!$A$1:$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="294">
   <si>
     <t>applicationname</t>
   </si>
@@ -64,143 +68,860 @@
     <t>Password1</t>
   </si>
   <si>
+    <t>Privacy Guard UK</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?source=jC7IAYwrzsRyfyw34Q8u6w==</t>
+  </si>
+  <si>
+    <t>dipti100</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Manage my credit</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKAIHOMEPG0026</t>
+  </si>
+  <si>
+    <t>testdata@gmail.com</t>
+  </si>
+  <si>
+    <t>Identity Secure</t>
+  </si>
+  <si>
+    <t>https:///pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKLZ1STDFLT0002</t>
+  </si>
+  <si>
+    <t>diptipatel1608@gmail.com</t>
+  </si>
+  <si>
+    <t>(Vanquis) Credit Tracker Identiy</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?source=OnSaHXM7BvXQ6mD37Zu3yQ==</t>
+  </si>
+  <si>
+    <t>ssltest@gmail.com</t>
+  </si>
+  <si>
+    <t>My Credit Tracker</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKGENSTDFLT0002</t>
+  </si>
+  <si>
+    <t>jennystork@gmail.com</t>
+  </si>
+  <si>
+    <t>American Express Identity Defence</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKAMXSTDFLT0001</t>
+  </si>
+  <si>
+    <t>MRY@gmail.com</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Org</t>
+  </si>
+  <si>
+    <t>Web-Site</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>QA comments</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>MC - Bansy/EWEMember portal</t>
+  </si>
+  <si>
+    <t>https://mastercard-hx.ie1.Prod1b.affiniongroup.com/?source=j7h62GliNhKo3mCh1TMIow%3D%3D</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>MC  - EWE/Suntrust Agent Portal (Aspire)</t>
+  </si>
+  <si>
+    <t>https://helix-sso.ie1.Prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOAgentTestForm</t>
+  </si>
+  <si>
+    <t>Target URL: https://agentportal-hx.ie1.Prod1b.affiniongroup.com/secure/AgentMastercardSSO.aspx</t>
+  </si>
+  <si>
+    <t>Not Working</t>
+  </si>
+  <si>
+    <t>MC Agent portal - MAC Agent</t>
+  </si>
+  <si>
+    <t>MC Agent portal - Issuer Bank Agent</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Enjoy More UK</t>
+  </si>
+  <si>
+    <t>https://eplus-hx.ie1.Prod1b.affiniongroup.com/?source=cTxwgofz8b%2f7DI8BfZJ8eQ%3d%3d</t>
+  </si>
+  <si>
+    <t>Datapal Full UK</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/?source=RyFRURvtWDMfB2zmae1yYA</t>
+  </si>
+  <si>
+    <t>AMEX Gadget Insurance - Single</t>
+  </si>
+  <si>
+    <t>https://mgi-hx.ie1.Prod1b.affiniongroup.com/secure/Enroll.aspx?source=oad1NUZOYaWxtx3Eo9lQSw==</t>
+  </si>
+  <si>
+    <t>AMEX Gadget Insurance - Multi</t>
+  </si>
+  <si>
+    <t>https://mgi-hx.ie1.Prod1b.affiniongroup.com/secure/Enroll.aspx?source=3QQtSV8hiREqW2cIIwEbWA==</t>
+  </si>
+  <si>
+    <t>AMEX Identity Platinum</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.Prod1b.affiniongroup.com/?ref=UKAMXSTDFLT0001</t>
+  </si>
+  <si>
+    <t>Barclays Credit Manager</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.Prod1b.affiniongroup.com/?ref=UKAIHOMEPG0026</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.Prod1b.affiniongroup.com/?source=rqkQ2GTcaKt64j+2BMdssg</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.Prod1b.affiniongroup.com/?source=jC7IAYwrzsRyfyw34Q8u6w==</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.Prod1b.affiniongroup.com/?ref=UKGENSTDFLT0002</t>
+  </si>
+  <si>
+    <t>https:///pguk-hx.ie1.Prod1b.affiniongroup.com/?ref=UKLZ1STDFLT0002</t>
+  </si>
+  <si>
+    <t>(Vanquis) Credit Tracker</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.Prod1b.affiniongroup.com/?source=OnSaHXM7BvXQ6mD37Zu3yQ==</t>
+  </si>
+  <si>
+    <t>Sabadell</t>
+  </si>
+  <si>
+    <t>https://helix-sso.ie1.Prod1b.affiniongroup.com/SSOTestApp/Home.mvc/Sabadell</t>
+  </si>
+  <si>
+    <t>MC -  MBO Member portal (Accolade Bank)</t>
+  </si>
+  <si>
+    <t>https://mastercard-hx.ie1.Prod1b.affiniongroup.com</t>
+  </si>
+  <si>
+    <t>RBS</t>
+  </si>
+  <si>
+    <t>https://rbshub-hx.ie1.Prod1b.affiniongroup.com/default.aspx?ref=UKRBSSTDFLT0001</t>
+  </si>
+  <si>
+    <t>Natwest</t>
+  </si>
+  <si>
+    <t>https://rbshub-hx.ie1.Prod1b.affiniongroup.com/default.aspx?ref=UKNWCSTDFLT0001</t>
+  </si>
+  <si>
+    <t>Ulster NI</t>
+  </si>
+  <si>
+    <t>https://rbshub-hx.ie1.Prod1b.affiniongroup.com/default.aspx/?ref=UKULBSTDFLT0001</t>
+  </si>
+  <si>
+    <t>Ulster RI</t>
+  </si>
+  <si>
+    <t>https://rbshub-hx.ie1.Prod1b.affiniongroup.com/default.aspx/?ref=UKULBSTDFLT0011</t>
+  </si>
+  <si>
+    <t>Redirecting to same site</t>
+  </si>
+  <si>
+    <t>UFirst</t>
+  </si>
+  <si>
+    <t>https://rbshub-hx.ie1.Prod1b.affiniongroup.com/?ref=UKULBSTDFLT0004</t>
+  </si>
+  <si>
+    <t>SENTINELGOLD</t>
+  </si>
+  <si>
+    <t>https://pcpai2-hx.ie1.Prod1b.affiniongroup.com/?ref=UKGENHOMEPG0002</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Datapal Turkey</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/?source=bUEPAfb2UJDVzY6uTKgZAQ%3d%3d</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Master Card- LIRA Agent Portal</t>
+  </si>
+  <si>
+    <t>MC -  Cariparma Member portal</t>
+  </si>
+  <si>
+    <t>https://helix-sso.ie1.Prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOTestForm</t>
+  </si>
+  <si>
+    <t>Master card -  Credit Agricole Cariparma Agent Portal</t>
+  </si>
+  <si>
+    <t>Master card -  Credit Agricole Carispezia Agent Portal</t>
+  </si>
+  <si>
+    <t>Master card -  Credit Agricole FriulAdria Agent Portal</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>Master card -  Credit Agricole FriulAdria Ca Foscari Agent Portal</t>
+  </si>
+  <si>
+    <t>Carrefour Italy</t>
+  </si>
+  <si>
+    <t>https://pcpai2-hx.ie1.Prod1b.affiniongroup.com/?ref=ITCF1HOMEPG0001</t>
+  </si>
+  <si>
+    <t>Intesa VAS</t>
+  </si>
+  <si>
+    <t>https://intesa-hx.ie1.Prod1b.affiniongroup.com/ </t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Datapal France</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/?source=lFF%2fmD%2bfAFqnieovc3OLrw%3d%3d</t>
+  </si>
+  <si>
+    <t>Sos Opposition (Quintess)</t>
+  </si>
+  <si>
+    <t>https://pcpai2-hx.ie1.Prod1b.affiniongroup.com/?ref=FRQNTHOMEPG0005</t>
+  </si>
+  <si>
+    <t>Protect Paiement (Carrefour Banque)</t>
+  </si>
+  <si>
+    <t>https://pcpai2-hx.ie1.Prod1b.affiniongroup.com/?ref=FRCARCCRFRL0001 </t>
+  </si>
+  <si>
+    <t>Club Equipage (BPSO)</t>
+  </si>
+  <si>
+    <t>https://bpsoclub-hx.ie1.Prod1b.affiniongroup.com/</t>
+  </si>
+  <si>
+    <t>France Loisirs</t>
+  </si>
+  <si>
+    <t>https://ltfr-hx.ie1.Prod1b.affiniongroup.com/?source=7o%2b6gfSZZpgx68h7WFl6mQ%3d</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Aurum/Vitalis</t>
+  </si>
+  <si>
+    <t>https://wellness-hx.ie1.Prod1b.affiniongroup.com/?source=SUQU1urlwDBUeX4iX3ARZA%3d%3d </t>
+  </si>
+  <si>
+    <t>Disfrutamaspormenos</t>
+  </si>
+  <si>
+    <t>https://ltes-hx.ie1.Prod1b.affiniongroup.com/?source=lPtTb0tIj/GNbW/U6munzg==</t>
+  </si>
+  <si>
+    <t>DisfrutayAhorra</t>
+  </si>
+  <si>
+    <t>https://ltes-hx.ie1.prod1b.affiniongroup.com/?source=SPAIHOMEPG0002</t>
+  </si>
+  <si>
+    <t>DyA/Ocioneo</t>
+  </si>
+  <si>
+    <t>https://ltes-hx.ie1.Prod1b.affiniongroup.com/?source=ncNie%2b3qHvccnGjRAX0tQw%3d%3d</t>
+  </si>
+  <si>
+    <t>Carrefour Spain</t>
+  </si>
+  <si>
+    <t>https://pcpai2-hx.ie1.Prod1b.affiniongroup.com/?ref=CARRFSTDFLT0001</t>
+  </si>
+  <si>
+    <t>Consejero legal</t>
+  </si>
+  <si>
+    <t>https://ltes-hx.ie1.Prod1b.affiniongroup.com/?source=TPWyTc5oSMyPwCpeEjQU9g==</t>
+  </si>
+  <si>
+    <t>Seguro</t>
+  </si>
+  <si>
+    <t>https://ltes-hx.ie1.Prod1b.affiniongroup.com/enroll.aspx?source=RXgv7i7KITiwboWeDGUWwA%3d%3d</t>
+  </si>
+  <si>
+    <t>Miasesor</t>
+  </si>
+  <si>
+    <t>https://ltes-hx.ie1.Prod1b.affiniongroup.com/secure/enroll.aspx?source=uRxSUR8Ou2DRn1oXJM6wbQ%3d%3d</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Eplus Germany-JADE</t>
+  </si>
+  <si>
+    <t>https://eplus-hx.ie1.Prod1b.affiniongroup.com/?source=M3kO6yafOBc3cXtbo1+z5g==</t>
+  </si>
+  <si>
+    <t>Eplus Germany-MOBILCOMM</t>
+  </si>
+  <si>
+    <t>https://eplus-hx.ie1.Prod1b.affiniongroup.com/?source=bJU5crAHLsCckNrNRdj1ww%3d%3d </t>
+  </si>
+  <si>
+    <t>Datapal MobilComm</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/?source=0d45fzIFeiz988jywCckPg%3d%3d</t>
+  </si>
+  <si>
+    <t> Datapal 1.5</t>
+  </si>
+  <si>
+    <t> https://datapal-hx.ie1.Prod1b.affiniongroup.com/?source=dOWpy%2beeQY3IYNaEhm0ALw%3d%3d</t>
+  </si>
+  <si>
+    <t>BW Bank</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/default.aspx?source=6dwSw9iyGThpdlquU6qCRw%3d%3d</t>
+  </si>
+  <si>
+    <t>Telekom</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/?source=ONSHPoNn9ecQDm3v4KnZxA%3d%3d</t>
+  </si>
+  <si>
+    <t>Datapal Advocard</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/?source=yF9gTo2aT5yNKoVwDJ%2bKuw%3d%3d</t>
+  </si>
+  <si>
+    <t>Datapal DEVK</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/?source=XYvld8floRDfkYCa7jmu9Q%3d</t>
+  </si>
+  <si>
+    <t>Uniqa</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/?source=5pMjpH9vUrCEH3Pzz7h3pw%3d%3d</t>
+  </si>
+  <si>
+    <t>BWBANK Online Shop</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/?source=6dwSw9iyGThpdlquU6qCRw%3d%3d</t>
+  </si>
+  <si>
+    <t>MC Alior Agent Portal</t>
+  </si>
+  <si>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/secure/default.aspx?source=58Cu8l%2bHdaCZhgx2r52gqg%3d%3d</t>
+  </si>
+  <si>
+    <t>TravelXTRA Freenet/Mobilcom</t>
+  </si>
+  <si>
+    <t>https://txde-hx.ie1.Prod1b.affiniongroup.com/?source=pNm4E11EalE0VZnBu91hug==</t>
+  </si>
+  <si>
+    <t>Sparkese Lunenburg</t>
+  </si>
+  <si>
+    <t>https://helix-sso.ie1.Prod1b.affiniongroup.com/GOLSSOTestApp/SparkasseSSO.aspx</t>
+  </si>
+  <si>
+    <t>Koelnbonn TicketShop</t>
+  </si>
+  <si>
+    <t>https://tickets-hx.ie1.Prod1b.affiniongroup.com</t>
+  </si>
+  <si>
+    <t>Master Card Allior</t>
+  </si>
+  <si>
+    <t>BW BANK (SSO)</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Datapal Full Brazil </t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/?source=tlwXVC6INWWf0ZKycrka%2fQ%3d%3d</t>
+  </si>
+  <si>
+    <t>AON Datapal</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.Prod1b.affiniongroup.com/?source=55DJhKF8OvtUpOUJR2uJeA%3d%3d  </t>
+  </si>
+  <si>
+    <t>AON Divertz/Vivertz</t>
+  </si>
+  <si>
+    <t>https://ltbr-hx.ie1.Prod1b.affiniongroup.com/?source=cXLW6uIt9FAqMCfQgoKO2w%3d%3d</t>
+  </si>
+  <si>
+    <t>Divertz</t>
+  </si>
+  <si>
+    <t>https://ltbr-hx.ie1.Prod1b.affiniongroup.com/?source=IqkhQq2XV512LlRJPYiXLA%3d%3d</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>QA Scope</t>
+  </si>
+  <si>
+    <t>Current Status - 8/10/21</t>
+  </si>
+  <si>
+    <t>QA Comments</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>http://www.fapertre.it/</t>
+  </si>
+  <si>
+    <t>Creditis</t>
+  </si>
+  <si>
+    <t>Helix Italy?</t>
+  </si>
+  <si>
+    <t>Analyzed</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Site Opening</t>
+  </si>
+  <si>
+    <t>www.privacyguard.co.uk</t>
+  </si>
+  <si>
+    <t>Privacy Guard UK / Various</t>
+  </si>
+  <si>
+    <t>Helix UK</t>
+  </si>
+  <si>
+    <t>Analysed</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>www.sentinelgold.co.uk</t>
+  </si>
+  <si>
+    <t>www.mycreditmonitor.co.uk</t>
+  </si>
+  <si>
+    <t>www.mycredittracker.co.uk</t>
+  </si>
+  <si>
+    <t>www.identitysecure.co.uk</t>
+  </si>
+  <si>
+    <t>www.idplatinum.co.uk </t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>https://idprotect.de/ </t>
+  </si>
+  <si>
+    <t>cxLoyalty</t>
+  </si>
+  <si>
+    <t>Helix Germany</t>
+  </si>
+  <si>
+    <t>https://idprotect.de/mobilcom/ </t>
+  </si>
+  <si>
+    <t>Mobilcom</t>
+  </si>
+  <si>
+    <t>https://idprotect.de/devk/ </t>
+  </si>
+  <si>
+    <t>Datapal - DEVK</t>
+  </si>
+  <si>
+    <t>devk.idprotect.de</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>www.disfrutayahorra.com</t>
+  </si>
+  <si>
+    <t>cxLoyalty -DisfrutayAhorra (Leisure_Time) </t>
+  </si>
+  <si>
+    <t>Helix SP</t>
+  </si>
+  <si>
+    <t>www.disfrutamaspormenos.com</t>
+  </si>
+  <si>
+    <t>cxLoyalty -Disfrutamaspormenos (Leisure_Time)</t>
+  </si>
+  <si>
+    <t>www.ocioneo.com</t>
+  </si>
+  <si>
+    <t>cxLoyalty-DyA/Ocioneo</t>
+  </si>
+  <si>
+    <t>www.vitalisbienestar.com</t>
+  </si>
+  <si>
+    <t>cxLoyalty - Vitalisbienestar</t>
+  </si>
+  <si>
+    <t>www.aurumbienestar.com</t>
+  </si>
+  <si>
+    <t>cxLoyalty-Aurum/Vitalis (Salud)</t>
+  </si>
+  <si>
+    <t>www.consejero-legal.com</t>
+  </si>
+  <si>
+    <t>cxLoyalty-Consejero legal</t>
+  </si>
+  <si>
+    <t>www.miasesorfamiliar.com</t>
+  </si>
+  <si>
+    <t>cxLoyalty-Miasesor</t>
+  </si>
+  <si>
+    <t>www.clubdescuentosdb.com</t>
+  </si>
+  <si>
+    <t>NEXTGEN + HELIX SP</t>
+  </si>
+  <si>
+    <t>www.seguroyprotegido.com</t>
+  </si>
+  <si>
+    <t>cxLoyalty-Seguro</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>www.protectpaiement-carrefour.fr</t>
+  </si>
+  <si>
+    <t>Carrefour</t>
+  </si>
+  <si>
+    <t>Helix FR</t>
+  </si>
+  <si>
+    <t>www.sosopposition.com</t>
+  </si>
+  <si>
+    <t>Various clients (retail) &amp; BRED Netword &amp; SBE (wholesale)-Sos Opposition (Quintess)</t>
+  </si>
+  <si>
+    <t>www.clubequipagebpaca.fr</t>
+  </si>
+  <si>
+    <t>BPACA--Club Equipage (BPSO)</t>
+  </si>
+  <si>
+    <t>managemycredit.co.uk</t>
+  </si>
+  <si>
+    <t>https://credittracker.identitysecure.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.privacyguard.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.managemycredit.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.sentinelgold.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.mycreditmonitor.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.mycredittracker.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.identitysecure.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.disfrutayahorra.com</t>
+  </si>
+  <si>
+    <t>https://www.disfrutamaspormenos.com</t>
+  </si>
+  <si>
+    <t>https://www.ocioneo.com</t>
+  </si>
+  <si>
+    <t>https://www.vitalisbienestar.com</t>
+  </si>
+  <si>
+    <t>https://www.aurumbienestar.com</t>
+  </si>
+  <si>
+    <t>https://www.consejero-legal.com</t>
+  </si>
+  <si>
+    <t>https://www.miasesorfamiliar.com</t>
+  </si>
+  <si>
+    <t>https://www.clubdescuentosdb.com</t>
+  </si>
+  <si>
+    <t>https://www.seguroyprotegido.com</t>
+  </si>
+  <si>
+    <t>https://www.protectpaiement-carrefour.fr</t>
+  </si>
+  <si>
+    <t>https://www.sosopposition.com</t>
+  </si>
+  <si>
+    <t>https://www.clubequipagebpaca.fr</t>
+  </si>
+  <si>
+    <t>https://www.idplatinum.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.idprotect.de/</t>
+  </si>
+  <si>
+    <t>https://www.idprotect.de/mobilcom/</t>
+  </si>
+  <si>
+    <t>https://www.idprotect.de/devk/</t>
+  </si>
+  <si>
+    <t>FaPerTre Card</t>
+  </si>
+  <si>
+    <t>Free credit report, credit score and credit check from PrivacyGuard UK</t>
+  </si>
+  <si>
+    <t>Manage My Credit</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Sentinel Gold</t>
+  </si>
+  <si>
+    <t>Home - MyCreditMonitor</t>
+  </si>
+  <si>
+    <t>Home - MyCreditTracker</t>
+  </si>
+  <si>
+    <t>Home - IdentitySecure</t>
+  </si>
+  <si>
+    <t>American Express Identity Defence Platinum</t>
+  </si>
+  <si>
+    <t>IDPROTECT</t>
+  </si>
+  <si>
+    <t>Disfruta+por-</t>
+  </si>
+  <si>
+    <t>Vitalis Bienestar | Servicio de salud y bienestar</t>
+  </si>
+  <si>
+    <t>Aurum Bienestar</t>
+  </si>
+  <si>
+    <t>Consejero Legal</t>
+  </si>
+  <si>
+    <t>MiAsesor - Home</t>
+  </si>
+  <si>
+    <t>Privacy error</t>
+  </si>
+  <si>
+    <t>SeguroyProtegido - Home</t>
+  </si>
+  <si>
+    <t>Accueil - Carrefour Banque</t>
+  </si>
+  <si>
+    <t>Page d'accueil - PCP SOS</t>
+  </si>
+  <si>
+    <t>BPACA</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Mastercard EWE</t>
+  </si>
+  <si>
+    <t>SSO Test Page</t>
+  </si>
+  <si>
+    <t>Enjoymore UK</t>
+  </si>
+  <si>
+    <t>Sabadell Test Page</t>
+  </si>
+  <si>
+    <t>Accolade Bank Membership Benefits -</t>
+  </si>
+  <si>
+    <t>RBS Membership Services - Home</t>
+  </si>
+  <si>
+    <t>Natwest Membership Services - Home</t>
+  </si>
+  <si>
+    <t>Ulster Membership Services - Home</t>
+  </si>
+  <si>
+    <t>DataPal, internette bilgilerinizi koruman?n ak?ll? yolu... - Datapal Turkey</t>
+  </si>
+  <si>
+    <t>Sentinel Valori Protetti</t>
+  </si>
+  <si>
+    <t>Servizi di protezione e sicurezza: SempliceSicuro - Intesa</t>
+  </si>
+  <si>
+    <t>Accueil</t>
+  </si>
+  <si>
+    <t>HaspaJoker Registrierungsportal</t>
+  </si>
+  <si>
+    <t>Home - Carrefour Proteccion</t>
+  </si>
+  <si>
+    <t>Jade®Exclusive - Home</t>
+  </si>
+  <si>
+    <t>TravelXtra - Home</t>
+  </si>
+  <si>
+    <t>Home | Ticket Shop</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Privacy Guard UK</t>
-  </si>
-  <si>
-    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?source=jC7IAYwrzsRyfyw34Q8u6w==</t>
-  </si>
-  <si>
-    <t>dipti100</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Arora</t>
-  </si>
-  <si>
-    <t>A234234</t>
-  </si>
-  <si>
-    <t>Raman</t>
-  </si>
-  <si>
-    <t>A24324</t>
-  </si>
-  <si>
-    <t>Cory</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>E34343</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>Rahul Arora</t>
-  </si>
-  <si>
-    <t>Rupee</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>Maruti</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>Kia</t>
-  </si>
-  <si>
-    <t>Hyundai</t>
-  </si>
-  <si>
-    <t>Manage my credit</t>
-  </si>
-  <si>
-    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKAIHOMEPG0026</t>
-  </si>
-  <si>
-    <t>testdata@gmail.com</t>
-  </si>
-  <si>
-    <t>Identity Secure</t>
-  </si>
-  <si>
-    <t>https:///pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKLZ1STDFLT0002</t>
-  </si>
-  <si>
-    <t>diptipatel1608@gmail.com</t>
-  </si>
-  <si>
-    <t>(Vanquis) Credit Tracker Identiy</t>
-  </si>
-  <si>
-    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?source=OnSaHXM7BvXQ6mD37Zu3yQ==</t>
-  </si>
-  <si>
-    <t>ssltest@gmail.com</t>
-  </si>
-  <si>
-    <t>My Credit Tracker</t>
-  </si>
-  <si>
-    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKGENSTDFLT0002</t>
-  </si>
-  <si>
-    <t>jennystork@gmail.com</t>
-  </si>
-  <si>
-    <t>American Express Identity Defence</t>
-  </si>
-  <si>
-    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKAMXSTDFLT0001</t>
-  </si>
-  <si>
-    <t>MRY@gmail.com</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>https://www.google.com</t>
-  </si>
-  <si>
-    <t>https://www.gmail.com</t>
+    <t>https://agentportal-hx.ie1.Prod1b.affiniongroup.com/secure/AgentMastercardSSO.aspx</t>
+  </si>
+  <si>
+    <t>Homeddf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,16 +944,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F5F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -255,12 +1026,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C7D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C7D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C7D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C7D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C7D0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C7D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC1C7D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C7D0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -278,6 +1114,86 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -597,32 +1513,40 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -639,127 +1563,127 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -785,277 +1709,4129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="46" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+      <c r="C1" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
+  <autoFilter ref="A1:D68"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="A19" r:id="rId2"/>
+    <hyperlink ref="A21" r:id="rId3"/>
+    <hyperlink ref="A50" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="38.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="46" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
+      <c r="H13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="21"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="21"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="21"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="21"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="21"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="21"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="21"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="21"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="21"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" s="21"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" s="21"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" s="21"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="21"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59" s="21"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" s="21"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" s="21"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" s="21"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" s="21"/>
+    </row>
+    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" s="21"/>
+    </row>
+    <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" s="21"/>
+    </row>
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="21"/>
+    </row>
+    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" s="21"/>
+    </row>
+    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://mastercard-hx.ie1.prod1b.affiniongroup.com/?source=j7h62GliNhKo3mCh1TMIow%3D%3D"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://helix-sso.ie1.prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOAgentTestForm"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://helix-sso.ie1.prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOAgentTestForm"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://confluence.affiniongroup.com/https:/helix-sso.ie1.Prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOAgentTestForm"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://eplus-hx.ie1.prod1b.affiniongroup.com/?source=cTxwgofz8b%2f7DI8BfZJ8eQ%3d%3d"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/?source=RyFRURvtWDMfB2zmae1yYA"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://mgi-hx.ie1.prod1b.affiniongroup.com/secure/Enroll.aspx?source=oad1NUZOYaWxtx3Eo9lQSw=="/>
+    <hyperlink ref="C9" r:id="rId8" display="https://mgi-hx.ie1.prod1b.affiniongroup.com/secure/Enroll.aspx?source=3QQtSV8hiREqW2cIIwEbWA=="/>
+    <hyperlink ref="C10" r:id="rId9" display="https://pguk-hx.ie1.prod1b.affiniongroup.com/?ref=UKAMXSTDFLT0001"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://pguk-hx.ie1.prod1b.affiniongroup.com/?ref=UKAIHOMEPG0026"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://pguk-hx.ie1.prod1b.affiniongroup.com/?source=rqkQ2GTcaKt64j+2BMdssg"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://pguk-hx.ie1.prod1b.affiniongroup.com/?source=jC7IAYwrzsRyfyw34Q8u6w=="/>
+    <hyperlink ref="C14" r:id="rId13" display="https://pguk-hx.ie1.prod1b.affiniongroup.com/?ref=UKGENSTDFLT0002"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://pguk-hx.ie1.prod1b.affiniongroup.com/?ref=UKLZ1STDFLT0002"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://pguk-hx.ie1.prod1b.affiniongroup.com/?source=OnSaHXM7BvXQ6mD37Zu3yQ=="/>
+    <hyperlink ref="C17" r:id="rId16" display="https://helix-sso.ie1.prod1b.affiniongroup.com/SSOTestApp/Home.mvc/Sabadell"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://mastercard-hx.ie1.prod1b.affiniongroup.com/"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://rbshub-hx.ie1.prod1b.affiniongroup.com/default.aspx?ref=UKRBSSTDFLT0001"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://rbshub-hx.ie1.prod1b.affiniongroup.com/default.aspx?ref=UKNWCSTDFLT0001"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://rbshub-hx.ie1.prod1b.affiniongroup.com/default.aspx/?ref=UKULBSTDFLT0001"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://rbshub-hx.ie1.prod1b.affiniongroup.com/default.aspx/?ref=UKULBSTDFLT0011"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://rbshub-hx.ie1.prod1b.affiniongroup.com/?ref=UKULBSTDFLT0004"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://pcpai2-hx.ie1.prod1b.affiniongroup.com/?ref=UKGENHOMEPG0002"/>
+    <hyperlink ref="C25" r:id="rId24" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/?source=bUEPAfb2UJDVzY6uTKgZAQ%3d%3d"/>
+    <hyperlink ref="C26" r:id="rId25" display="https://confluence.affiniongroup.com/https:/helix-sso.ie1.Prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOAgentTestForm"/>
+    <hyperlink ref="C27" r:id="rId26" display="https://helix-sso.ie1.prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOTestForm"/>
+    <hyperlink ref="C28" r:id="rId27" display="https://helix-sso.ie1.prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOAgentTestForm"/>
+    <hyperlink ref="C29" r:id="rId28" display="https://agentportal-hx.ie1.prod1b.affiniongroup.com/secure/AgentMastercardSSO.aspx"/>
+    <hyperlink ref="C30" r:id="rId29" display="https://helix-sso.ie1.prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOAgentTestForm"/>
+    <hyperlink ref="C31" r:id="rId30" display="https://agentportal-hx.ie1.prod1b.affiniongroup.com/secure/AgentMastercardSSO.aspx"/>
+    <hyperlink ref="C32" r:id="rId31" display="https://helix-sso.ie1.prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOAgentTestForm"/>
+    <hyperlink ref="C33" r:id="rId32" display="https://helix-sso.ie1.prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOAgentTestForm"/>
+    <hyperlink ref="C34" r:id="rId33" display="https://pcpai2-hx.ie1.prod1b.affiniongroup.com/?ref=ITCF1HOMEPG0001"/>
+    <hyperlink ref="C35" r:id="rId34" display="https://intesa-hx.ie1.prod1b.affiniongroup.com/"/>
+    <hyperlink ref="C36" r:id="rId35" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/?source=lFF%2fmD%2bfAFqnieovc3OLrw%3d%3d"/>
+    <hyperlink ref="C37" r:id="rId36" display="https://pcpai2-hx.ie1.prod1b.affiniongroup.com/?ref=FRQNTHOMEPG0005"/>
+    <hyperlink ref="C38" r:id="rId37" display="https://pcpai2-hx.ie1.prod1b.affiniongroup.com/?ref=FRCARCCRFRL0001"/>
+    <hyperlink ref="C39" r:id="rId38" display="https://bpsoclub-hx.ie1.prod1b.affiniongroup.com/"/>
+    <hyperlink ref="C40" r:id="rId39" display="https://ltfr-hx.ie1.prod1b.affiniongroup.com/?source=7o%2b6gfSZZpgx68h7WFl6mQ%3d"/>
+    <hyperlink ref="C41" r:id="rId40" display="https://wellness-hx.ie1.prod1b.affiniongroup.com/?source=SUQU1urlwDBUeX4iX3ARZA%3d%3d"/>
+    <hyperlink ref="C42" r:id="rId41" display="https://ltes-hx.ie1.prod1b.affiniongroup.com/?source=lPtTb0tIj/GNbW/U6munzg=="/>
+    <hyperlink ref="C43" r:id="rId42"/>
+    <hyperlink ref="C44" r:id="rId43" display="https://ltes-hx.ie1.prod1b.affiniongroup.com/?source=ncNie%2b3qHvccnGjRAX0tQw%3d%3d"/>
+    <hyperlink ref="C45" r:id="rId44" display="https://pcpai2-hx.ie1.prod1b.affiniongroup.com/?ref=CARRFSTDFLT0001"/>
+    <hyperlink ref="C46" r:id="rId45" display="https://ltes-hx.ie1.prod1b.affiniongroup.com/?source=TPWyTc5oSMyPwCpeEjQU9g=="/>
+    <hyperlink ref="C47" r:id="rId46" display="https://ltes-hx.ie1.prod1b.affiniongroup.com/enroll.aspx?source=RXgv7i7KITiwboWeDGUWwA%3d%3d"/>
+    <hyperlink ref="C48" r:id="rId47" display="https://ltes-hx.ie1.prod1b.affiniongroup.com/secure/enroll.aspx?source=uRxSUR8Ou2DRn1oXJM6wbQ%3d%3d"/>
+    <hyperlink ref="C49" r:id="rId48" display="https://eplus-hx.ie1.prod1b.affiniongroup.com/?source=M3kO6yafOBc3cXtbo1+z5g=="/>
+    <hyperlink ref="C50" r:id="rId49" display="https://eplus-hx.ie1.prod1b.affiniongroup.com/?source=bJU5crAHLsCckNrNRdj1ww%3d%3d"/>
+    <hyperlink ref="C51" r:id="rId50" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/?source=0d45fzIFeiz988jywCckPg%3d%3d"/>
+    <hyperlink ref="C52" r:id="rId51" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/?source=dOWpy%2beeQY3IYNaEhm0ALw%3d%3d"/>
+    <hyperlink ref="C53" r:id="rId52" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/default.aspx?source=6dwSw9iyGThpdlquU6qCRw%3d%3d"/>
+    <hyperlink ref="C54" r:id="rId53" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/?source=ONSHPoNn9ecQDm3v4KnZxA%3d%3d"/>
+    <hyperlink ref="C55" r:id="rId54" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/?source=yF9gTo2aT5yNKoVwDJ%2bKuw%3d%3d"/>
+    <hyperlink ref="C56" r:id="rId55" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/?source=XYvld8floRDfkYCa7jmu9Q%3d"/>
+    <hyperlink ref="C57" r:id="rId56" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/?source=5pMjpH9vUrCEH3Pzz7h3pw%3d%3d"/>
+    <hyperlink ref="C58" r:id="rId57" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/?source=6dwSw9iyGThpdlquU6qCRw%3d%3d"/>
+    <hyperlink ref="C59" r:id="rId58" display="https://helix-sso.ie1.prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOAgentTestForm"/>
+    <hyperlink ref="C60" r:id="rId59" display="https://agentportal-hx.ie1.prod1b.affiniongroup.com/secure/AgentMastercardSSO.aspx"/>
+    <hyperlink ref="C61" r:id="rId60" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/secure/default.aspx?source=58Cu8l%2bHdaCZhgx2r52gqg%3d%3d"/>
+    <hyperlink ref="C62" r:id="rId61" display="https://txde-hx.ie1.prod1b.affiniongroup.com/?source=pNm4E11EalE0VZnBu91hug=="/>
+    <hyperlink ref="C63" r:id="rId62" display="https://confluence.affiniongroup.com/https:/helix-sso.ie1.Prod1b.affiniongroup.com/GOLSSOTestApp/SparkasseSSO.aspx"/>
+    <hyperlink ref="C64" r:id="rId63" display="https://tickets-hx.ie1.prod1b.affiniongroup.com/"/>
+    <hyperlink ref="C65" r:id="rId64" display="https://helix-sso.ie1.prod1b.affiniongroup.com/SSOTestApp/Home.mvc/SSOAgentTestForm"/>
+    <hyperlink ref="C66" r:id="rId65" display="https://helix-sso.ie1.prod1b.affiniongroup.com/GOLSSOTestApp/SparkasseSSO.aspx"/>
+    <hyperlink ref="C67" r:id="rId66" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/?source=tlwXVC6INWWf0ZKycrka%2fQ%3d%3d"/>
+    <hyperlink ref="C68" r:id="rId67" display="https://datapal-hx.ie1.prod1b.affiniongroup.com/?source=55DJhKF8OvtUpOUJR2uJeA%3d%3d"/>
+    <hyperlink ref="C69" r:id="rId68" display="https://ltbr-hx.ie1.prod1b.affiniongroup.com/?source=cXLW6uIt9FAqMCfQgoKO2w%3d%3d"/>
+    <hyperlink ref="C70" r:id="rId69" display="https://ltbr-hx.ie1.prod1b.affiniongroup.com/?source=IqkhQq2XV512LlRJPYiXLA%3d%3d"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="26.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="J2" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="J3" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="J4" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="J5" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="J6" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="J7" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="J8" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="J9" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="J10" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="J11" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="J12" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="J13" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="J14" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="J15" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="J16" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="J17" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="J18" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="J19" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="J20" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="J21" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="J22" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="J23" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="J24" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="J25" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="J26" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J27" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J28" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J29" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J30" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J31" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J32" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J33" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J46" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J47" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J48" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J49" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J50" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J51" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J52" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J53" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J54" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J55" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J56" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J57" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J58" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J59" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J60" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J61" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J62" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J63" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J64" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J65" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J66" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J67" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J68" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J69" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J70" s="29" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://www.creditmanager.barclays.co.uk/"/>
+    <hyperlink ref="B6" r:id="rId3" display="http://www.sentinelgold.co.uk/"/>
+    <hyperlink ref="B7" r:id="rId4" display="http://www.mycreditmonitor.co.uk/"/>
+    <hyperlink ref="B8" r:id="rId5" display="http://www.mycredittracker.co.uk/"/>
+    <hyperlink ref="B9" r:id="rId6" display="http://www.identitysecure.co.uk/"/>
+    <hyperlink ref="B10" r:id="rId7" display="http://www.idplatinum.co.uk/"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://idprotect.de/"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://idprotect.de/mobilcom/"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://idprotect.de/devk/"/>
+    <hyperlink ref="B14" r:id="rId11" display="http://devk.idprotect.de/"/>
+    <hyperlink ref="B15" r:id="rId12" display="http://www.disfrutayahorra.com/"/>
+    <hyperlink ref="B16" r:id="rId13" display="http://www.disfrutamaspormenos.com/"/>
+    <hyperlink ref="B17" r:id="rId14" display="http://www.ocioneo.com/"/>
+    <hyperlink ref="B18" r:id="rId15" display="http://www.vitalisbienestar.com/"/>
+    <hyperlink ref="B19" r:id="rId16" display="http://www.aurumbienestar.com/"/>
+    <hyperlink ref="B20" r:id="rId17" display="http://www.consejero-legal.com/"/>
+    <hyperlink ref="B21" r:id="rId18" display="http://www.miasesorfamiliar.com/"/>
+    <hyperlink ref="B22" r:id="rId19" display="http://www.clubdescuentosdb.com/"/>
+    <hyperlink ref="B23" r:id="rId20" display="http://www.seguroyprotegido.com/"/>
+    <hyperlink ref="B24" r:id="rId21" display="http://www.protectpaiement-carrefour.fr/"/>
+    <hyperlink ref="B25" r:id="rId22" display="http://www.sosopposition.com/"/>
+    <hyperlink ref="B26" r:id="rId23" display="http://www.clubequipagebpaca.fr/"/>
+    <hyperlink ref="B5" r:id="rId24"/>
+    <hyperlink ref="A37" r:id="rId25"/>
+    <hyperlink ref="A42" r:id="rId26"/>
+    <hyperlink ref="A43" r:id="rId27"/>
+    <hyperlink ref="A44" r:id="rId28"/>
+    <hyperlink ref="A45" r:id="rId29"/>
+    <hyperlink ref="A34" r:id="rId30"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13580" windowHeight="1780"/>
   </bookViews>
   <sheets>
     <sheet name="sanityTest" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">preProd1bTest!$A$1:$D$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">prodSanityTest!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="301">
   <si>
     <t>applicationname</t>
   </si>
@@ -86,9 +86,6 @@
     <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKAIHOMEPG0026</t>
   </si>
   <si>
-    <t>testdata@gmail.com</t>
-  </si>
-  <si>
     <t>Identity Secure</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>MRY@gmail.com</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>Org</t>
   </si>
   <si>
@@ -915,13 +909,40 @@
   </si>
   <si>
     <t>Homeddf</t>
+  </si>
+  <si>
+    <t>luke.emery@affinioninternational.com</t>
+  </si>
+  <si>
+    <t>Testing1</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.qa2b.affiniongroup.com/?source=RyFRURvtWDMfB2zmae1yYA</t>
+  </si>
+  <si>
+    <t>dipti100@gmail.com</t>
+  </si>
+  <si>
+    <t>https://pcpai2-hx.ie1.qa2b.affiniongroup.com/?ref=UKGENHOMEPG0002</t>
+  </si>
+  <si>
+    <t>excapone</t>
+  </si>
+  <si>
+    <t>Ocioneo</t>
+  </si>
+  <si>
+    <t>https://ltes-hx.ie1.qa2b.affiniongroup.com/?source=ncNie%2b3qHvccnGjRAX0tQw%3d%3d</t>
+  </si>
+  <si>
+    <t>diptifff@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,8 +991,27 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,8 +1042,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1091,12 +1143,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1186,6 +1249,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1194,6 +1266,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1510,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1563,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1583,10 +1667,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1596,11 +1680,11 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
+      <c r="D4" s="33" t="s">
+        <v>292</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -1608,16 +1692,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1628,16 +1712,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1648,16 +1732,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -1668,22 +1752,82 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1691,19 +1835,24 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4" display="mailto:testdata@gmail.com"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6"/>
-    <hyperlink ref="D5" r:id="rId7" display="mailto:diptipatel1608@gmail.com"/>
-    <hyperlink ref="B6" r:id="rId8"/>
-    <hyperlink ref="D6" r:id="rId9" display="mailto:ssltest@gmail.com"/>
-    <hyperlink ref="B7" r:id="rId10"/>
-    <hyperlink ref="D7" r:id="rId11" display="mailto:jennystork@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId12"/>
-    <hyperlink ref="D8" r:id="rId13" display="mailto:MRY@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6" display="mailto:diptipatel1608@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="D6" r:id="rId8" display="mailto:ssltest@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId9"/>
+    <hyperlink ref="D7" r:id="rId10" display="mailto:jennystork@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId11"/>
+    <hyperlink ref="D8" r:id="rId12" display="mailto:MRY@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId13"/>
+    <hyperlink ref="B9" r:id="rId14"/>
+    <hyperlink ref="D9" r:id="rId15"/>
+    <hyperlink ref="B10" r:id="rId16"/>
+    <hyperlink ref="B11" r:id="rId17"/>
+    <hyperlink ref="D11" r:id="rId18" display="mailto:diptifff@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -1731,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>5</v>
@@ -1739,27 +1888,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>14</v>
@@ -1767,13 +1916,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>14</v>
@@ -1781,13 +1930,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>14</v>
@@ -1795,13 +1944,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>14</v>
@@ -1809,30 +1958,30 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D60"/>
     </sheetView>
   </sheetViews>
@@ -1853,97 +2002,97 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>14</v>
@@ -1951,27 +2100,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>14</v>
@@ -1979,13 +2128,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>14</v>
@@ -1993,13 +2142,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>14</v>
@@ -2007,13 +2156,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>14</v>
@@ -2021,13 +2170,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>14</v>
@@ -2035,41 +2184,41 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>14</v>
@@ -2077,13 +2226,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>14</v>
@@ -2091,13 +2240,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>14</v>
@@ -2105,13 +2254,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>14</v>
@@ -2119,13 +2268,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>14</v>
@@ -2133,13 +2282,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>14</v>
@@ -2147,13 +2296,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>14</v>
@@ -2161,13 +2310,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>14</v>
@@ -2175,357 +2324,357 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B46" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>14</v>
@@ -2533,13 +2682,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D50" s="29" t="s">
         <v>14</v>
@@ -2547,41 +2696,41 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B51" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>14</v>
@@ -2589,27 +2738,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B55" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>14</v>
@@ -2617,13 +2766,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D56" s="29" t="s">
         <v>14</v>
@@ -2631,58 +2780,58 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B59" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B60" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>5</v>
@@ -2728,13 +2877,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>14</v>
@@ -2742,322 +2891,322 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3089,275 +3238,275 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="F1" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="24" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="20"/>
       <c r="G2" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="20"/>
       <c r="G3" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="20"/>
       <c r="G4" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="20"/>
       <c r="G5" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="20"/>
       <c r="G6" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="20"/>
       <c r="G8" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="20"/>
       <c r="G9" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="20"/>
       <c r="G10" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="20"/>
       <c r="G11" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="20"/>
@@ -3365,22 +3514,22 @@
         <v>6</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="20"/>
@@ -3388,1310 +3537,1310 @@
         <v>11</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
       <c r="G15" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="20"/>
       <c r="G19" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="20"/>
       <c r="G20" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="20"/>
       <c r="G23" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="20"/>
       <c r="G24" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="20"/>
       <c r="G25" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="20"/>
       <c r="G26" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>87</v>
-      </c>
       <c r="C27" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="20"/>
       <c r="G27" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="C28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="21"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="33" t="s">
-        <v>89</v>
+      <c r="G28" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="33"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>90</v>
+      <c r="A30" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>88</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="33" t="s">
-        <v>90</v>
+      <c r="G30" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="33"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="20"/>
       <c r="G32" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="20"/>
       <c r="G33" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="20"/>
       <c r="G34" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="20"/>
       <c r="G35" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="D36" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="20"/>
       <c r="G36" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="20"/>
       <c r="G37" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="20"/>
       <c r="G38" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="20"/>
       <c r="G39" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="20"/>
       <c r="G40" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="D41" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="20"/>
       <c r="G41" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="20"/>
       <c r="G43" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="20"/>
       <c r="G44" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="20"/>
       <c r="G45" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="20"/>
       <c r="G46" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="20"/>
       <c r="G47" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="20"/>
       <c r="G48" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="D49" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="20"/>
       <c r="G50" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="20"/>
       <c r="G51" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="20"/>
       <c r="G52" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="20"/>
       <c r="G53" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="20"/>
       <c r="G54" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="20"/>
       <c r="G55" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="20"/>
       <c r="G56" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="20"/>
       <c r="G57" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I57" s="21"/>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="20"/>
       <c r="G58" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" s="21"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="H58" s="21" t="s">
+      <c r="C59" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I58" s="21"/>
-    </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="D59" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="33" t="s">
-        <v>147</v>
+      <c r="G59" s="36" t="s">
+        <v>145</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I59" s="21"/>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="33"/>
+      <c r="G60" s="36"/>
       <c r="H60" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I60" s="21"/>
     </row>
     <row r="61" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="20"/>
       <c r="G61" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I61" s="21"/>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="20"/>
       <c r="G62" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I62" s="21"/>
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="20"/>
       <c r="G63" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I63" s="21"/>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="20"/>
       <c r="G64" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I64" s="21"/>
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="20"/>
       <c r="G65" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I65" s="21"/>
     </row>
     <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="20"/>
       <c r="G66" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I66" s="21"/>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>160</v>
-      </c>
       <c r="D67" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="20"/>
       <c r="G67" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I67" s="21"/>
     </row>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="20"/>
       <c r="G68" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I68" s="21"/>
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="20"/>
       <c r="G69" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I69" s="21"/>
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="20"/>
       <c r="G70" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I70" s="21"/>
     </row>
@@ -4805,28 +4954,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>5</v>
@@ -4834,52 +4983,52 @@
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="H2" s="12"/>
       <c r="J2" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="G3" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H3" s="12"/>
       <c r="J3" s="29" t="s">
@@ -4888,25 +5037,25 @@
     </row>
     <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>185</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" s="14"/>
       <c r="J4" s="29" t="s">
@@ -4915,25 +5064,25 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="G5" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="12"/>
       <c r="J5" s="29" t="s">
@@ -4942,25 +5091,25 @@
     </row>
     <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6" s="12"/>
       <c r="J6" s="29" t="s">
@@ -4969,295 +5118,295 @@
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H7" s="12"/>
       <c r="J7" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H8" s="12"/>
       <c r="J8" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="G9" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H9" s="12"/>
       <c r="J9" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="G10" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H10" s="12"/>
       <c r="J10" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>195</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H11" s="12"/>
       <c r="J11" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H12" s="12"/>
       <c r="J12" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H13" s="12"/>
       <c r="J13" s="29" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>194</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H14" s="12"/>
       <c r="J14" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>204</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H15" s="12"/>
       <c r="J15" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H16" s="12"/>
       <c r="J16" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H17" s="12"/>
       <c r="J17" s="29" t="s">
@@ -5266,52 +5415,52 @@
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H18" s="12"/>
       <c r="J18" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H19" s="12"/>
       <c r="J19" s="29" t="s">
@@ -5320,25 +5469,25 @@
     </row>
     <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H20" s="12"/>
       <c r="J20" s="29" t="s">
@@ -5347,52 +5496,52 @@
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H21" s="12"/>
       <c r="J21" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H22" s="12"/>
       <c r="J22" s="29" t="s">
@@ -5401,25 +5550,25 @@
     </row>
     <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H23" s="12"/>
       <c r="J23" s="29" t="s">
@@ -5428,79 +5577,79 @@
     </row>
     <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>224</v>
-      </c>
       <c r="E24" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H24" s="12"/>
       <c r="J24" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H25" s="14"/>
       <c r="J25" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E26" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="12"/>
       <c r="J26" s="29" t="s">
@@ -5544,199 +5693,199 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J42" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J43" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J44" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J45" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J46" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J47" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J48" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J49" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J50" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J51" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J52" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J53" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J54" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J55" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J56" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J57" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J58" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.35">
@@ -5751,12 +5900,12 @@
     </row>
     <row r="61" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J61" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J62" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="10:10" x14ac:dyDescent="0.35">
@@ -5766,7 +5915,7 @@
     </row>
     <row r="64" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J64" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.35">
@@ -5781,22 +5930,22 @@
     </row>
     <row r="67" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J67" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J68" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J69" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J70" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumPractice\HelixKTLO\HelixV2E\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13580" windowHeight="1780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10730" windowHeight="3580"/>
   </bookViews>
   <sheets>
     <sheet name="sanityTest" sheetId="2" r:id="rId1"/>
@@ -24,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">prodSanityTest!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="303">
   <si>
     <t>applicationname</t>
   </si>
@@ -936,6 +932,12 @@
   </si>
   <si>
     <t>diptifff@gmail.com</t>
+  </si>
+  <si>
+    <t>https://ltes-hx.ie1.qa2b.affiniongroup.com/?source=SPAIHOMEPG0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jonsyx@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1258,15 +1260,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1278,6 +1271,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1594,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1811,7 +1822,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B11" s="33" t="s">
@@ -1820,13 +1831,33 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>289</v>
       </c>
     </row>
@@ -1850,9 +1881,10 @@
     <hyperlink ref="B10" r:id="rId16"/>
     <hyperlink ref="B11" r:id="rId17"/>
     <hyperlink ref="D11" r:id="rId18" display="mailto:diptifff@gmail.com"/>
+    <hyperlink ref="B12" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -3868,10 +3900,10 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -3882,7 +3914,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="40" t="s">
         <v>87</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -3891,8 +3923,8 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="10" t="s">
         <v>40</v>
       </c>
@@ -3901,17 +3933,17 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="36"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="21" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -3922,7 +3954,7 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="40" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="21" t="s">
@@ -3931,8 +3963,8 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="10" t="s">
         <v>40</v>
       </c>
@@ -3941,7 +3973,7 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="36"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="21" t="s">
         <v>41</v>
       </c>
@@ -4575,10 +4607,10 @@
       <c r="I58" s="21"/>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="41" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -4589,7 +4621,7 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="36" t="s">
+      <c r="G59" s="40" t="s">
         <v>145</v>
       </c>
       <c r="H59" s="21" t="s">
@@ -4598,8 +4630,8 @@
       <c r="I59" s="21"/>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="10" t="s">
         <v>40</v>
       </c>
@@ -4608,7 +4640,7 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="36"/>
+      <c r="G60" s="40"/>
       <c r="H60" s="21" t="s">
         <v>41</v>
       </c>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumPractice\HelixKTLO\HelixV2E\src\test\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10730" windowHeight="3580"/>
   </bookViews>
@@ -19,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">prodSanityTest!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1057,7 +1061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1142,17 +1146,6 @@
       <top style="medium">
         <color rgb="FFC1C7D0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1269,8 +1262,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1281,14 +1280,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1608,7 +1601,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1837,12 +1830,12 @@
       <c r="E11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="41" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="33" t="s">
@@ -1851,13 +1844,13 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="45" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3900,10 +3893,10 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="43" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -3914,7 +3907,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="42" t="s">
         <v>87</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -3923,8 +3916,8 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="10" t="s">
         <v>40</v>
       </c>
@@ -3933,17 +3926,17 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="40"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="21" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="43" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -3954,7 +3947,7 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="42" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="21" t="s">
@@ -3963,8 +3956,8 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="10" t="s">
         <v>40</v>
       </c>
@@ -3973,7 +3966,7 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="40"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="21" t="s">
         <v>41</v>
       </c>
@@ -4607,10 +4600,10 @@
       <c r="I58" s="21"/>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="43" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -4621,7 +4614,7 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="40" t="s">
+      <c r="G59" s="42" t="s">
         <v>145</v>
       </c>
       <c r="H59" s="21" t="s">
@@ -4630,8 +4623,8 @@
       <c r="I59" s="21"/>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="10" t="s">
         <v>40</v>
       </c>
@@ -4640,7 +4633,7 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="40"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="21" t="s">
         <v>41</v>
       </c>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,11 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumPractice\HelixKTLO\HelixV2E\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10730" windowHeight="3580"/>
   </bookViews>
@@ -24,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">prodSanityTest!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="313">
   <si>
     <t>applicationname</t>
   </si>
@@ -942,6 +938,37 @@
   </si>
   <si>
     <t xml:space="preserve"> jonsyx@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disfrutamaspormenos (Leisure_Time)
+</t>
+  </si>
+  <si>
+    <t>https://ltes-hx.ie1.qa2b.affiniongroup.com/?source=lPtTb0tIj/GNbW/U6munzg==</t>
+  </si>
+  <si>
+    <t>virtusa21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.qa2b.affiniongroup.com/?source=5pMjpH9vUrCEH3Pzz7h3pw%3d%3d</t>
+  </si>
+  <si>
+    <t>virtusa200@gmail.com</t>
+  </si>
+  <si>
+    <t>Datapal 1.5</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.qa2b.affiniongroup.com/?source=dOWpy%2beeQY3IYNaEhm0ALw%3d%3d</t>
+  </si>
+  <si>
+    <t>jeffry@gmail.com</t>
+  </si>
+  <si>
+    <t>https://datapal-hx.ie1.qa2b.affiniongroup.com/?source=0d45fzIFeiz988jywCckPg%3d%3d</t>
+  </si>
+  <si>
+    <t>CBELRSJ@billing.com</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1149,12 +1176,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1256,9 +1294,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1271,6 +1306,29 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1279,9 +1337,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1598,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1609,7 +1664,7 @@
     <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1684,7 +1739,7 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="2" t="s">
         <v>292</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1704,7 +1759,7 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1724,7 +1779,7 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="44" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1744,7 +1799,7 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="44" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1764,7 +1819,7 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="44" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1784,7 +1839,7 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E9" s="35" t="s">
@@ -1804,7 +1859,7 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="45" t="s">
         <v>297</v>
       </c>
       <c r="E10" s="35" t="s">
@@ -1824,18 +1879,18 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="33" t="s">
@@ -1844,14 +1899,94 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>289</v>
+      <c r="F12" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.35">
+      <c r="A13" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1875,9 +2010,17 @@
     <hyperlink ref="B11" r:id="rId17"/>
     <hyperlink ref="D11" r:id="rId18" display="mailto:diptifff@gmail.com"/>
     <hyperlink ref="B12" r:id="rId19"/>
+    <hyperlink ref="B13" r:id="rId20"/>
+    <hyperlink ref="D13" r:id="rId21"/>
+    <hyperlink ref="B14" r:id="rId22"/>
+    <hyperlink ref="D14" r:id="rId23"/>
+    <hyperlink ref="B15" r:id="rId24"/>
+    <hyperlink ref="D15" r:id="rId25"/>
+    <hyperlink ref="B16" r:id="rId26"/>
+    <hyperlink ref="D16" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -3893,10 +4036,10 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="51" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -3907,7 +4050,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="50" t="s">
         <v>87</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -3916,8 +4059,8 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="10" t="s">
         <v>40</v>
       </c>
@@ -3926,17 +4069,17 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="42"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="21" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="51" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -3947,7 +4090,7 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="50" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="21" t="s">
@@ -3956,8 +4099,8 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="10" t="s">
         <v>40</v>
       </c>
@@ -3966,7 +4109,7 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="42"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="21" t="s">
         <v>41</v>
       </c>
@@ -4600,10 +4743,10 @@
       <c r="I58" s="21"/>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="51" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -4614,7 +4757,7 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="42" t="s">
+      <c r="G59" s="50" t="s">
         <v>145</v>
       </c>
       <c r="H59" s="21" t="s">
@@ -4623,8 +4766,8 @@
       <c r="I59" s="21"/>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="10" t="s">
         <v>40</v>
       </c>
@@ -4633,7 +4776,7 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="42"/>
+      <c r="G60" s="50"/>
       <c r="H60" s="21" t="s">
         <v>41</v>
       </c>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumPractice\HelixKTLO\HelixV2E\src\test\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10730" windowHeight="3580"/>
   </bookViews>
@@ -19,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">prodSanityTest!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1088,7 +1092,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1176,23 +1180,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1307,9 +1300,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1664,7 +1654,7 @@
     <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" style="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1759,7 +1749,7 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1779,7 +1769,7 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1799,7 +1789,7 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1819,7 +1809,7 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1859,7 +1849,7 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="44" t="s">
         <v>297</v>
       </c>
       <c r="E10" s="35" t="s">
@@ -1879,7 +1869,7 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>300</v>
       </c>
       <c r="E11" s="37" t="s">
@@ -1899,7 +1889,7 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="46" t="s">
         <v>302</v>
       </c>
       <c r="E12" s="39" t="s">
@@ -1910,7 +1900,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="56" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>303</v>
       </c>
       <c r="B13" s="33" t="s">
@@ -1925,8 +1915,8 @@
       <c r="E13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>14</v>
+      <c r="F13" s="41" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1939,14 +1929,14 @@
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="48" t="s">
         <v>307</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>14</v>
+      <c r="F14" s="41" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1959,13 +1949,13 @@
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="48" t="s">
         <v>310</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="41" t="s">
         <v>289</v>
       </c>
     </row>
@@ -1979,14 +1969,14 @@
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="48" t="s">
         <v>312</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>14</v>
+      <c r="F16" s="41" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4036,10 +4026,10 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -4050,7 +4040,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="49" t="s">
         <v>87</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -4059,8 +4049,8 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="10" t="s">
         <v>40</v>
       </c>
@@ -4069,17 +4059,17 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="50"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="21" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="50" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -4090,7 +4080,7 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="49" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="21" t="s">
@@ -4099,8 +4089,8 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="10" t="s">
         <v>40</v>
       </c>
@@ -4109,7 +4099,7 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="50"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="21" t="s">
         <v>41</v>
       </c>
@@ -4743,10 +4733,10 @@
       <c r="I58" s="21"/>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="50" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -4757,7 +4747,7 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="50" t="s">
+      <c r="G59" s="49" t="s">
         <v>145</v>
       </c>
       <c r="H59" s="21" t="s">
@@ -4766,8 +4756,8 @@
       <c r="I59" s="21"/>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="10" t="s">
         <v>40</v>
       </c>
@@ -4776,7 +4766,7 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="50"/>
+      <c r="G60" s="49"/>
       <c r="H60" s="21" t="s">
         <v>41</v>
       </c>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,11 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumPractice\HelixKTLO\HelixV2E\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10730" windowHeight="3580"/>
   </bookViews>
@@ -24,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">prodSanityTest!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="318">
   <si>
     <t>applicationname</t>
   </si>
@@ -973,13 +969,28 @@
   </si>
   <si>
     <t>CBELRSJ@billing.com</t>
+  </si>
+  <si>
+    <t>Vitalisbienestar</t>
+  </si>
+  <si>
+    <t>http://wellness-hx.ie1.qa2b.affiniongroup.com/Default.aspx?source=fZNkjQrtsg/qZQh1TLGNQA=</t>
+  </si>
+  <si>
+    <t>aoin@gmail.com</t>
+  </si>
+  <si>
+    <t>AurumVitalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wellness-hx.ie1.qa2b.affiniongroup.com/?source=SUQU1urlwDBUeX4iX3ARZA%3d%3d </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,6 +1058,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1092,7 +1109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1180,12 +1197,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1319,6 +1347,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1327,6 +1364,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1643,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F11"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1976,6 +2016,46 @@
         <v>10</v>
       </c>
       <c r="F16" s="41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="51" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2008,9 +2088,13 @@
     <hyperlink ref="D15" r:id="rId25"/>
     <hyperlink ref="B16" r:id="rId26"/>
     <hyperlink ref="D16" r:id="rId27"/>
+    <hyperlink ref="B17" r:id="rId28"/>
+    <hyperlink ref="D17" r:id="rId29" display="mailto:aoin@gmail.com"/>
+    <hyperlink ref="B18" r:id="rId30"/>
+    <hyperlink ref="D18" r:id="rId31" display="mailto:aoin@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -4026,10 +4110,10 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="53" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -4040,7 +4124,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="52" t="s">
         <v>87</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -4049,8 +4133,8 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="10" t="s">
         <v>40</v>
       </c>
@@ -4059,17 +4143,17 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="49"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="21" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="53" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -4080,7 +4164,7 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="21" t="s">
@@ -4089,8 +4173,8 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="10" t="s">
         <v>40</v>
       </c>
@@ -4099,7 +4183,7 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="49"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="21" t="s">
         <v>41</v>
       </c>
@@ -4733,10 +4817,10 @@
       <c r="I58" s="21"/>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="53" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -4747,7 +4831,7 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="49" t="s">
+      <c r="G59" s="52" t="s">
         <v>145</v>
       </c>
       <c r="H59" s="21" t="s">
@@ -4756,8 +4840,8 @@
       <c r="I59" s="21"/>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="10" t="s">
         <v>40</v>
       </c>
@@ -4766,7 +4850,7 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="49"/>
+      <c r="G60" s="52"/>
       <c r="H60" s="21" t="s">
         <v>41</v>
       </c>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="311">
   <si>
     <t>applicationname</t>
   </si>
@@ -967,12 +967,6 @@
   </si>
   <si>
     <t>jeffry@gmail.com</t>
-  </si>
-  <si>
-    <t>https://datapal-hx.ie1.qa2b.affiniongroup.com/?source=0d45fzIFeiz988jywCckPg%3d%3d</t>
-  </si>
-  <si>
-    <t>CBELRSJ@billing.com</t>
   </si>
 </sst>
 </file>
@@ -1643,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F11"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1956,26 +1950,6 @@
         <v>10</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="41" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2006,11 +1980,9 @@
     <hyperlink ref="D14" r:id="rId23"/>
     <hyperlink ref="B15" r:id="rId24"/>
     <hyperlink ref="D15" r:id="rId25"/>
-    <hyperlink ref="B16" r:id="rId26"/>
-    <hyperlink ref="D16" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -16,15 +16,15 @@
     <sheet name="preProd1bTest" sheetId="9" r:id="rId2"/>
     <sheet name="PreProd1gTest" sheetId="13" r:id="rId3"/>
     <sheet name="prodSanityTest" sheetId="8" r:id="rId4"/>
-    <sheet name="ProdSites" sheetId="10" r:id="rId5"/>
-    <sheet name="preProd1bSites" sheetId="11" r:id="rId6"/>
-    <sheet name="Backup" sheetId="12" r:id="rId7"/>
+    <sheet name="T-ProdSites" sheetId="10" r:id="rId5"/>
+    <sheet name="T-preProd1bSites" sheetId="11" r:id="rId6"/>
+    <sheet name="T-Backup" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">preProd1bTest!$A$1:$D$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">prodSanityTest!$A$1:$B$24</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1177,7 +1177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1242,12 +1242,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1329,7 +1323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1417,23 +1411,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1538,13 +1521,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1577,8 +1557,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1589,18 +1581,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1919,36 +1899,36 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" customWidth="1"/>
-    <col min="2" max="2" width="74.54296875" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.36328125" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" style="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.54296875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1959,356 +1939,356 @@
       <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="43" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>221</v>
+      <c r="F2" s="42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>314</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="E3" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>14</v>
+      <c r="F3" s="42" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B5" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="44" t="s">
+      <c r="C5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="F5" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="44" t="s">
+      <c r="C6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="F6" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="31" t="s">
+      <c r="C7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="F6" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="F7" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="45" t="s">
+      <c r="C8" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="F8" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="45" t="s">
+      <c r="C9" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="45" t="s">
+      <c r="C11" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>296</v>
+        <v>293</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>294</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
+      <c r="F12" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B14" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="47" t="s">
+      <c r="C14" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="55" t="s">
+      <c r="F14" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B15" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="55" t="s">
+      <c r="C15" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E15" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="52" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
-        <v>306</v>
+        <v>141</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="E16" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B18" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="48" t="s">
+      <c r="C18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+      <c r="F18" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B19" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="44" t="s">
+      <c r="C19" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E19" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="52" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2319,16 +2299,16 @@
       <c r="B20" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="40" t="s">
+      <c r="C20" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="39" t="s">
         <v>320</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="42" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2336,37 +2316,37 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7"/>
-    <hyperlink ref="B7" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="D7" r:id="rId10" display="mailto:diptipatel1608@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId11"/>
-    <hyperlink ref="D8" r:id="rId12" display="mailto:ssltest@gmail.com"/>
-    <hyperlink ref="B9" r:id="rId13"/>
-    <hyperlink ref="D9" r:id="rId14" display="mailto:jennystork@gmail.com"/>
-    <hyperlink ref="B10" r:id="rId15"/>
-    <hyperlink ref="D10" r:id="rId16" display="mailto:MRY@gmail.com"/>
-    <hyperlink ref="D6" r:id="rId17"/>
-    <hyperlink ref="B11" r:id="rId18"/>
-    <hyperlink ref="D11" r:id="rId19"/>
-    <hyperlink ref="B12" r:id="rId20"/>
-    <hyperlink ref="B13" r:id="rId21"/>
-    <hyperlink ref="D13" r:id="rId22" display="mailto:diptifff@gmail.com"/>
-    <hyperlink ref="B14" r:id="rId23"/>
-    <hyperlink ref="B15" r:id="rId24"/>
-    <hyperlink ref="D15" r:id="rId25"/>
-    <hyperlink ref="B16" r:id="rId26"/>
-    <hyperlink ref="D16" r:id="rId27"/>
-    <hyperlink ref="B17" r:id="rId28"/>
-    <hyperlink ref="D17" r:id="rId29"/>
-    <hyperlink ref="B18" r:id="rId30"/>
-    <hyperlink ref="D18" r:id="rId31"/>
-    <hyperlink ref="B19" r:id="rId32"/>
-    <hyperlink ref="D19" r:id="rId33" display="mailto:aoin@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B7" r:id="rId9"/>
+    <hyperlink ref="D8" r:id="rId10" display="mailto:diptipatel1608@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId11"/>
+    <hyperlink ref="D9" r:id="rId12" display="mailto:ssltest@gmail.com"/>
+    <hyperlink ref="B10" r:id="rId13"/>
+    <hyperlink ref="D10" r:id="rId14" display="mailto:jennystork@gmail.com"/>
+    <hyperlink ref="B11" r:id="rId15"/>
+    <hyperlink ref="D11" r:id="rId16" display="mailto:MRY@gmail.com"/>
+    <hyperlink ref="D7" r:id="rId17"/>
+    <hyperlink ref="B12" r:id="rId18"/>
+    <hyperlink ref="D12" r:id="rId19"/>
+    <hyperlink ref="B13" r:id="rId20"/>
+    <hyperlink ref="B14" r:id="rId21"/>
+    <hyperlink ref="D14" r:id="rId22" display="mailto:diptifff@gmail.com"/>
+    <hyperlink ref="B15" r:id="rId23"/>
+    <hyperlink ref="B16" r:id="rId24"/>
+    <hyperlink ref="D16" r:id="rId25"/>
+    <hyperlink ref="B17" r:id="rId26"/>
+    <hyperlink ref="D17" r:id="rId27"/>
+    <hyperlink ref="B18" r:id="rId28"/>
+    <hyperlink ref="D18" r:id="rId29"/>
+    <hyperlink ref="B19" r:id="rId30"/>
+    <hyperlink ref="D19" r:id="rId31"/>
+    <hyperlink ref="B3" r:id="rId32"/>
+    <hyperlink ref="D3" r:id="rId33" display="mailto:aoin@gmail.com"/>
     <hyperlink ref="B20" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4327,7 +4307,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4423,7 +4403,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="53" t="s">
         <v>233</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -4521,7 +4501,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="54" t="s">
         <v>236</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -4659,7 +4639,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="53" t="s">
         <v>246</v>
       </c>
       <c r="B24" s="30" t="s">
@@ -5272,7 +5252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>199</v>
       </c>
@@ -5380,7 +5360,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>219</v>
       </c>
@@ -5741,7 +5721,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6389,10 +6369,10 @@
       <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="58" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -6403,7 +6383,7 @@
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="57" t="s">
         <v>87</v>
       </c>
       <c r="H28" s="19" t="s">
@@ -6412,8 +6392,8 @@
       <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="8" t="s">
         <v>40</v>
       </c>
@@ -6422,17 +6402,17 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="52"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="19" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="58" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -6443,7 +6423,7 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="57" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="19" t="s">
@@ -6452,8 +6432,8 @@
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="8" t="s">
         <v>40</v>
       </c>
@@ -6462,7 +6442,7 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="52"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="19" t="s">
         <v>41</v>
       </c>
@@ -7096,10 +7076,10 @@
       <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="58" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -7110,7 +7090,7 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="18"/>
-      <c r="G59" s="52" t="s">
+      <c r="G59" s="57" t="s">
         <v>145</v>
       </c>
       <c r="H59" s="19" t="s">
@@ -7119,8 +7099,8 @@
       <c r="I59" s="19"/>
     </row>
     <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="8" t="s">
         <v>40</v>
       </c>
@@ -7129,7 +7109,7 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="18"/>
-      <c r="G60" s="52"/>
+      <c r="G60" s="57"/>
       <c r="H60" s="19" t="s">
         <v>41</v>
       </c>
@@ -7456,8 +7436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A106" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8305,7 +8285,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="49" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8324,7 +8304,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="60" t="s">
+      <c r="A69" s="55" t="s">
         <v>378</v>
       </c>
     </row>
